--- a/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.34734462926055</v>
+        <v>93.18762776377099</v>
       </c>
       <c r="D2" t="n">
-        <v>2.638998475823739</v>
+        <v>2.833334720774367</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.9224987252729</v>
+        <v>92.39038564467026</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0786868496413</v>
+        <v>2.455409818757772</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.32561550120056</v>
+        <v>91.19884188009429</v>
       </c>
       <c r="D4" t="n">
-        <v>2.861315739362104</v>
+        <v>2.713172644763309</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.70403828773804</v>
+        <v>90.45502780546087</v>
       </c>
       <c r="D5" t="n">
-        <v>2.771790540724495</v>
+        <v>2.795016001505119</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.24569648057417</v>
+        <v>89.04551968218406</v>
       </c>
       <c r="D6" t="n">
-        <v>2.548939086939757</v>
+        <v>2.463466935067086</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.0447215442798</v>
+        <v>87.90823274177464</v>
       </c>
       <c r="D7" t="n">
-        <v>3.044272178548393</v>
+        <v>2.65130890172396</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.21378911170527</v>
+        <v>86.32700484895039</v>
       </c>
       <c r="D8" t="n">
-        <v>2.94716500695975</v>
+        <v>2.46856717917382</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.46718395675641</v>
+        <v>86.1542293744517</v>
       </c>
       <c r="D9" t="n">
-        <v>2.907643463695958</v>
+        <v>2.684180531696304</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.3295151417455</v>
+        <v>84.68446614420422</v>
       </c>
       <c r="D10" t="n">
-        <v>2.962173168250438</v>
+        <v>2.504495081632743</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.80068387500216</v>
+        <v>83.62351160204543</v>
       </c>
       <c r="D11" t="n">
-        <v>2.808817857667488</v>
+        <v>2.539085589934202</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.32611126105279</v>
+        <v>82.66567483799662</v>
       </c>
       <c r="D12" t="n">
-        <v>2.700725020172472</v>
+        <v>2.52314499005798</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.84566570422972</v>
+        <v>81.38707661837336</v>
       </c>
       <c r="D13" t="n">
-        <v>2.58841044733989</v>
+        <v>2.969760241717516</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.05742916615043</v>
+        <v>80.13361823119808</v>
       </c>
       <c r="D14" t="n">
-        <v>2.534544645253885</v>
+        <v>2.955606665055372</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.13220949545922</v>
+        <v>78.94200361182898</v>
       </c>
       <c r="D15" t="n">
-        <v>2.673173353095869</v>
+        <v>2.474759239819394</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.9842967775464</v>
+        <v>78.3897963071864</v>
       </c>
       <c r="D16" t="n">
-        <v>2.688039160423933</v>
+        <v>2.883036057570356</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.82763770650233</v>
+        <v>77.38689002898131</v>
       </c>
       <c r="D17" t="n">
-        <v>2.781156770268106</v>
+        <v>2.677522012569063</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.80845755767446</v>
+        <v>75.96202847648284</v>
       </c>
       <c r="D18" t="n">
-        <v>2.684507938200817</v>
+        <v>2.871186087739137</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.27109801834143</v>
+        <v>74.63966426113431</v>
       </c>
       <c r="D19" t="n">
-        <v>2.736308482839485</v>
+        <v>2.452173208734257</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89767384396356</v>
+        <v>73.86913493899951</v>
       </c>
       <c r="D20" t="n">
-        <v>2.694098755792656</v>
+        <v>2.453559987179659</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.88015167110164</v>
+        <v>72.74305194637419</v>
       </c>
       <c r="D21" t="n">
-        <v>2.374246350572571</v>
+        <v>2.571781121074115</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.06520781725675</v>
+        <v>71.44076320719203</v>
       </c>
       <c r="D22" t="n">
-        <v>2.732202972934185</v>
+        <v>2.822604061866545</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.22104413042935</v>
+        <v>70.2500828322429</v>
       </c>
       <c r="D23" t="n">
-        <v>2.776720189866805</v>
+        <v>2.505247793468794</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.23218898374112</v>
+        <v>69.08057844589035</v>
       </c>
       <c r="D24" t="n">
-        <v>2.344785442151642</v>
+        <v>2.631632223465726</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.87464208873827</v>
+        <v>68.14772002177943</v>
       </c>
       <c r="D25" t="n">
-        <v>2.499313411488354</v>
+        <v>2.016436181884278</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.26898809367486</v>
+        <v>67.51283884777958</v>
       </c>
       <c r="D26" t="n">
-        <v>2.644839151839093</v>
+        <v>2.080743051212109</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.10614266677641</v>
+        <v>65.99670877080435</v>
       </c>
       <c r="D27" t="n">
-        <v>2.964934724844786</v>
+        <v>2.825801843543856</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.41269359804924</v>
+        <v>65.83997863627155</v>
       </c>
       <c r="D28" t="n">
-        <v>2.898362613222567</v>
+        <v>2.761484242721373</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.46138041309315</v>
+        <v>64.05973754105479</v>
       </c>
       <c r="D29" t="n">
-        <v>2.833072447801245</v>
+        <v>2.633828793547282</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.26332143250884</v>
+        <v>63.26998078030455</v>
       </c>
       <c r="D30" t="n">
-        <v>2.755162455884518</v>
+        <v>2.612577113919818</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.00319523315754</v>
+        <v>61.76701413785477</v>
       </c>
       <c r="D31" t="n">
-        <v>2.550383054540463</v>
+        <v>2.702726196525907</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.9933989406373</v>
+        <v>61.19778229903526</v>
       </c>
       <c r="D32" t="n">
-        <v>2.826286487297227</v>
+        <v>2.426216839680329</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.30297633742015</v>
+        <v>59.51978877316373</v>
       </c>
       <c r="D33" t="n">
-        <v>2.923876695179723</v>
+        <v>2.364270518300319</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.7402536636495</v>
+        <v>58.7041299760233</v>
       </c>
       <c r="D34" t="n">
-        <v>2.758380688983161</v>
+        <v>2.791894258311502</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.68310111560105</v>
+        <v>57.84559470631995</v>
       </c>
       <c r="D35" t="n">
-        <v>2.95119878686508</v>
+        <v>2.587558839323608</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.50135362379465</v>
+        <v>56.71202071975241</v>
       </c>
       <c r="D36" t="n">
-        <v>2.58001268850948</v>
+        <v>2.944275734629613</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.66828627698899</v>
+        <v>55.46634872992912</v>
       </c>
       <c r="D37" t="n">
-        <v>3.282648217986131</v>
+        <v>2.670050247303398</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.83831653844735</v>
+        <v>54.53462895356277</v>
       </c>
       <c r="D38" t="n">
-        <v>2.724862361896164</v>
+        <v>2.633935840358208</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.1471128697132</v>
+        <v>53.36344823129809</v>
       </c>
       <c r="D39" t="n">
-        <v>2.811994225708986</v>
+        <v>2.266058654649814</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.58966720375821</v>
+        <v>52.45914755178527</v>
       </c>
       <c r="D40" t="n">
-        <v>2.754101456178122</v>
+        <v>2.373353681340926</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.39176918304481</v>
+        <v>51.2917754355856</v>
       </c>
       <c r="D41" t="n">
-        <v>2.717428114213456</v>
+        <v>2.39717505313877</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.56366462746619</v>
+        <v>50.44737799831175</v>
       </c>
       <c r="D42" t="n">
-        <v>2.314329677502325</v>
+        <v>2.95225156484067</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0950561071469</v>
+        <v>48.94330241679035</v>
       </c>
       <c r="D43" t="n">
-        <v>2.830634559269196</v>
+        <v>2.688058992834384</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.59372395308156</v>
+        <v>48.67714783923113</v>
       </c>
       <c r="D44" t="n">
-        <v>2.698150226403219</v>
+        <v>2.822167128044946</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.99641874701311</v>
+        <v>47.45685027030633</v>
       </c>
       <c r="D45" t="n">
-        <v>3.242862797980342</v>
+        <v>2.824409014170612</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.1691042458723</v>
+        <v>46.54326974864686</v>
       </c>
       <c r="D46" t="n">
-        <v>2.569724486294128</v>
+        <v>2.736982462304327</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.63341525960507</v>
+        <v>45.09994257640031</v>
       </c>
       <c r="D47" t="n">
-        <v>2.592681705885241</v>
+        <v>2.676724581877621</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.40271413311673</v>
+        <v>44.15888657408627</v>
       </c>
       <c r="D48" t="n">
-        <v>2.593000576243957</v>
+        <v>2.558738998336609</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.9747751571222</v>
+        <v>43.26278046321639</v>
       </c>
       <c r="D49" t="n">
-        <v>2.675001355853724</v>
+        <v>2.372430178553222</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.06986091332182</v>
+        <v>42.31677799571435</v>
       </c>
       <c r="D50" t="n">
-        <v>2.965463822376264</v>
+        <v>2.704119938650928</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.43453539552423</v>
+        <v>41.04365166149537</v>
       </c>
       <c r="D51" t="n">
-        <v>2.20544493594869</v>
+        <v>2.656110336302733</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.45086158801718</v>
+        <v>39.78047587773177</v>
       </c>
       <c r="D52" t="n">
-        <v>2.622370110939864</v>
+        <v>2.861133278186782</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.33147765104366</v>
+        <v>39.53709872203671</v>
       </c>
       <c r="D53" t="n">
-        <v>2.899873997380029</v>
+        <v>2.481861806198964</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.19448211662471</v>
+        <v>38.50034156849307</v>
       </c>
       <c r="D54" t="n">
-        <v>2.327429412335993</v>
+        <v>2.686328495447688</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.83808394208297</v>
+        <v>36.61418811908239</v>
       </c>
       <c r="D55" t="n">
-        <v>2.908571741741368</v>
+        <v>2.543666353680051</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.22974729144252</v>
+        <v>36.33727032128099</v>
       </c>
       <c r="D56" t="n">
-        <v>2.860813648124182</v>
+        <v>2.740264078018054</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.34368134620569</v>
+        <v>35.06714619138088</v>
       </c>
       <c r="D57" t="n">
-        <v>2.658669208991553</v>
+        <v>2.870769939073467</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.35796580116479</v>
+        <v>34.46178134794215</v>
       </c>
       <c r="D58" t="n">
-        <v>2.458219916559031</v>
+        <v>2.643773119491395</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.76896294948828</v>
+        <v>33.13025974211445</v>
       </c>
       <c r="D59" t="n">
-        <v>3.108257957786383</v>
+        <v>2.480049675124048</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.19172015434677</v>
+        <v>31.96132605044869</v>
       </c>
       <c r="D60" t="n">
-        <v>3.161000349878027</v>
+        <v>2.596020033316225</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.81140784299217</v>
+        <v>30.91818489538446</v>
       </c>
       <c r="D61" t="n">
-        <v>2.806719886059466</v>
+        <v>2.529201666385102</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.18011324808393</v>
+        <v>30.02224443574023</v>
       </c>
       <c r="D62" t="n">
-        <v>2.877825822106166</v>
+        <v>2.591173079128211</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.07413145322258</v>
+        <v>29.40747198279468</v>
       </c>
       <c r="D63" t="n">
-        <v>2.866304964300013</v>
+        <v>2.735554322243788</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.12614574077641</v>
+        <v>28.20860149220328</v>
       </c>
       <c r="D64" t="n">
-        <v>2.521559480550794</v>
+        <v>2.638677502453868</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.23736192132378</v>
+        <v>27.09117055428436</v>
       </c>
       <c r="D65" t="n">
-        <v>2.762970469710298</v>
+        <v>2.559899021925474</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.10806124863255</v>
+        <v>26.3394962767864</v>
       </c>
       <c r="D66" t="n">
-        <v>2.595627946849125</v>
+        <v>2.534269088688766</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.95129606189549</v>
+        <v>24.7386066456786</v>
       </c>
       <c r="D67" t="n">
-        <v>2.713946003440037</v>
+        <v>2.76676136899489</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.00038733251993</v>
+        <v>23.91075420334563</v>
       </c>
       <c r="D68" t="n">
-        <v>2.648020824711553</v>
+        <v>2.701148847914678</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.06165815086736</v>
+        <v>22.85904637854639</v>
       </c>
       <c r="D69" t="n">
-        <v>2.437481784725771</v>
+        <v>3.053272731734923</v>
       </c>
     </row>
   </sheetData>
